--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T13:48:42+00:00</t>
+    <t>2023-12-09T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T14:06:07+00:00</t>
+    <t>2024-01-13T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>Practitioner.identifier:VPNR.assigner.display</t>
+  </si>
+  <si>
+    <t>Dachverband der österreichischen Sozialversicherungsträger</t>
   </si>
   <si>
     <t>Practitioner.identifier:vbPK</t>
@@ -7161,7 +7164,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>74</v>
@@ -7232,13 +7235,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>142</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>153</v>
@@ -7460,7 +7463,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>159</v>
@@ -7574,7 +7577,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>164</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>174</v>
@@ -7806,7 +7809,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>184</v>
@@ -7835,7 +7838,7 @@
         <v>99</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>186</v>
@@ -7851,7 +7854,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>74</v>
@@ -7922,7 +7925,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>194</v>
@@ -8036,7 +8039,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>203</v>
@@ -8148,7 +8151,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>211</v>
@@ -8262,7 +8265,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>236</v>
@@ -8374,7 +8377,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>238</v>
@@ -8488,7 +8491,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>240</v>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>247</v>
@@ -8716,7 +8719,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>255</v>
@@ -8830,7 +8833,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>262</v>
@@ -8873,7 +8876,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>74</v>
@@ -8944,10 +8947,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8970,70 +8973,70 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9051,21 +9054,21 @@
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9088,19 +9091,19 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9149,7 +9152,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9164,13 +9167,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9178,10 +9181,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9204,19 +9207,19 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9265,7 +9268,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9280,13 +9283,13 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9294,10 +9297,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9320,19 +9323,19 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9381,7 +9384,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9390,19 +9393,19 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -9410,10 +9413,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9439,14 +9442,14 @@
         <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9474,10 +9477,10 @@
         <v>169</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9495,7 +9498,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9510,13 +9513,13 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -9524,10 +9527,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9550,17 +9553,17 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9609,7 +9612,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9624,13 +9627,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9638,10 +9641,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9664,17 +9667,17 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9723,7 +9726,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9741,10 +9744,10 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -9752,10 +9755,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9778,13 +9781,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9835,7 +9838,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9850,13 +9853,13 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -9864,10 +9867,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9976,10 +9979,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10090,14 +10093,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10119,10 +10122,10 @@
         <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>134</v>
@@ -10177,7 +10180,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10206,10 +10209,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10235,14 +10238,14 @@
         <v>143</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10291,7 +10294,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10309,7 +10312,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10320,10 +10323,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10349,10 +10352,10 @@
         <v>175</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10379,13 +10382,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10403,7 +10406,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>85</v>
@@ -10421,10 +10424,10 @@
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>74</v>
@@ -10432,10 +10435,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10461,14 +10464,14 @@
         <v>204</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10517,7 +10520,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10535,10 +10538,10 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>74</v>
@@ -10546,10 +10549,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10575,10 +10578,10 @@
         <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10629,7 +10632,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10647,7 +10650,7 @@
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10658,10 +10661,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10687,16 +10690,16 @@
         <v>175</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10745,7 +10748,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10760,13 +10763,13 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:57:04+00:00</t>
+    <t>2024-01-13T14:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T14:40:05+00:00</t>
+    <t>2024-01-13T15:31:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T15:31:15+00:00</t>
+    <t>2024-01-13T16:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:17:47+00:00</t>
+    <t>2024-01-13T16:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:48:03+00:00</t>
+    <t>2024-02-04T13:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -840,7 +840,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>Bundesministerium für XY</t>
+    <t>Bundesministerium für Gesundheit</t>
   </si>
   <si>
     <t>Reference.display</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T13:28:51+00:00</t>
+    <t>2024-02-16T09:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
